--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E8" s="3">
         <v>124000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>176900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>756500</v>
       </c>
-      <c r="G8" s="3">
-        <v>289000</v>
-      </c>
       <c r="H8" s="3">
+        <v>224700</v>
+      </c>
+      <c r="I8" s="3">
         <v>179700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>172200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>570500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E9" s="3">
         <v>100000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>639500</v>
       </c>
-      <c r="G9" s="3">
-        <v>246800</v>
-      </c>
       <c r="H9" s="3">
+        <v>186700</v>
+      </c>
+      <c r="I9" s="3">
         <v>158800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>151500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>497400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E10" s="3">
         <v>24000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>117000</v>
       </c>
-      <c r="G10" s="3">
-        <v>42200</v>
-      </c>
       <c r="H10" s="3">
+        <v>38000</v>
+      </c>
+      <c r="I10" s="3">
         <v>20900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1900</v>
       </c>
       <c r="H12" s="3">
         <v>1100</v>
       </c>
       <c r="I12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,8 +901,8 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -894,13 +914,16 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E17" s="3">
         <v>125700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>163600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>708900</v>
       </c>
-      <c r="G17" s="3">
-        <v>275400</v>
-      </c>
       <c r="H17" s="3">
+        <v>207600</v>
+      </c>
+      <c r="I17" s="3">
         <v>173400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>166300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>548000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47600</v>
       </c>
-      <c r="G18" s="3">
-        <v>13600</v>
-      </c>
       <c r="H18" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I18" s="3">
         <v>6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>400</v>
-      </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60200</v>
       </c>
-      <c r="G21" s="3">
-        <v>16700</v>
-      </c>
       <c r="H21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I21" s="3">
         <v>8900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>47100</v>
       </c>
-      <c r="G23" s="3">
-        <v>13800</v>
-      </c>
       <c r="H23" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10400</v>
       </c>
-      <c r="G24" s="3">
-        <v>3400</v>
-      </c>
       <c r="H24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36800</v>
       </c>
-      <c r="G26" s="3">
-        <v>10400</v>
-      </c>
       <c r="H26" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36700</v>
       </c>
-      <c r="G27" s="3">
-        <v>10400</v>
-      </c>
       <c r="H27" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1328,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-49200</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-400</v>
-      </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E41" s="3">
         <v>23900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1681,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E43" s="3">
         <v>85400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>178500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>168200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>148500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>142800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E44" s="3">
         <v>53600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>59500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>87900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>82100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>84500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>70000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E46" s="3">
         <v>174100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>204000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>252800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>287700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>273800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>259700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>245300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E48" s="3">
         <v>66700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>71200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>99300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>69100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>56600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E49" s="3">
         <v>95900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>97000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>97700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>115500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>40100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E52" s="3">
         <v>15100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>395100</v>
+      </c>
+      <c r="E54" s="3">
         <v>351800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>388500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>450500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>512600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>394800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>382100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>353800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E57" s="3">
         <v>50400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>105600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>87800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E59" s="3">
         <v>32300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E60" s="3">
         <v>85600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>102800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>158000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>167500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>153600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>138100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E61" s="3">
         <v>58600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>74600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>88700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>108900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E62" s="3">
         <v>28000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E66" s="3">
         <v>171700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>278300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>312300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>194900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>167000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E72" s="3">
         <v>91400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>94600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>86800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>116400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>106000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>104300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>103600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E76" s="3">
         <v>180000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>182300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>172300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>188300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>187200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>186700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2500</v>
       </c>
       <c r="I83" s="3">
         <v>2500</v>
       </c>
       <c r="J83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K83" s="3">
         <v>10400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E89" s="3">
         <v>5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>52600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-99000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-93400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,23 +3212,24 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3003,13 +3237,16 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>56700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>87100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-6100</v>
       </c>
       <c r="J102" s="3">
         <v>-6100</v>
       </c>
       <c r="K102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>197900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>171600</v>
+      </c>
+      <c r="F8" s="3">
         <v>203500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>124000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>176900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>756500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>224700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>179700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>172200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>570500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>136400</v>
+      </c>
+      <c r="F9" s="3">
         <v>152700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>100000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>140600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>639500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>186700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>158800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>151500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>497400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F10" s="3">
         <v>50800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>36300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>117000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>38000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>20900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>73100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,31 +862,37 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,11 +943,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -917,13 +956,19 @@
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>160800</v>
+      </c>
+      <c r="F17" s="3">
         <v>177100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>125700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>163600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>708900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>207600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>173400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>166300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>548000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F18" s="3">
         <v>26400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>13300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>47600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>17100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1108,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F21" s="3">
         <v>29600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>15700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>60200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>20300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>32900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F23" s="3">
         <v>26600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>12100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>47100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>17400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>21500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>10400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F26" s="3">
         <v>19400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>11700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>36800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>13100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F27" s="3">
         <v>19300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>11700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>36700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,40 +1446,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F29" s="3">
         <v>-600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-3900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-49200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-2700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-1300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-3300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-3100</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F33" s="3">
         <v>18700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F35" s="3">
         <v>18700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F41" s="3">
         <v>43100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>40900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>27400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,136 +1863,166 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>80600</v>
+      </c>
+      <c r="F43" s="3">
         <v>121900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>85400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>94300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>77900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>178500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>168200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>148500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>142800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F44" s="3">
         <v>43100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>53600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>59300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>59500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>87900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>82100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>84500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>70000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>8300</v>
       </c>
       <c r="E45" s="3">
-        <v>11200</v>
+        <v>8200</v>
       </c>
       <c r="F45" s="3">
         <v>9500</v>
       </c>
       <c r="G45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I45" s="3">
         <v>96100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>206100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>156200</v>
+      </c>
+      <c r="F46" s="3">
         <v>217500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>174100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>204000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>252800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>287700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>273800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>259700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>245300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +2053,90 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F48" s="3">
         <v>72900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>66700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>71200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>72200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>99300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>70500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>69100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>56600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>105900</v>
+      </c>
+      <c r="F49" s="3">
         <v>95100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>95900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>97000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>97700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>115500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>40100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>42200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>42400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2205,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F52" s="3">
         <v>9600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>15100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>16400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>27800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>411500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>359000</v>
+      </c>
+      <c r="F54" s="3">
         <v>395100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>351800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>388500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>450500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>512600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>394800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>382100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>353800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2355,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F57" s="3">
         <v>63400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>50400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>63500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>54700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>83700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>105600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>87800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>76400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>17000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F59" s="3">
         <v>34600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>32300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>30200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>94900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>66800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>64200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>65800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>61600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>93400</v>
+      </c>
+      <c r="F60" s="3">
         <v>111000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>85600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>102800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>158000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>167500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>170000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>153600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>138100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F61" s="3">
         <v>48500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>58600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>74600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>88700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>108900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>20900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>26000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>25500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F62" s="3">
         <v>35900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>28000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>29300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>32200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>36500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F66" s="3">
         <v>195100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>171700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>206300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>278300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>312300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>206500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>194900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>167000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E72" s="3">
         <v>109300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="G72" s="3">
         <v>91400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>94600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>86800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>116400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>106000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>104300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>103600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>200300</v>
+      </c>
+      <c r="F76" s="3">
         <v>200000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>180000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>182300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>172300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>200300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>188300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>187200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>186700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F81" s="3">
         <v>18700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F89" s="3">
         <v>32400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-17100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>34200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-5900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3500</v>
+        <v>-6200</v>
       </c>
       <c r="F91" s="3">
         <v>-2400</v>
       </c>
       <c r="G91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>52600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-99000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-93400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-14200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3222,31 +3689,37 @@
         <v>-900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-13900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>56700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>87100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F102" s="3">
         <v>19200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-17000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E8" s="3">
         <v>197900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>203500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>124000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>176900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>756500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>224700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>179700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>172200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>570500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E9" s="3">
         <v>157900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>136400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>152700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>639500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>186700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>158800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>497400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E10" s="3">
         <v>40000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>117000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1100</v>
       </c>
       <c r="K12" s="3">
         <v>1100</v>
       </c>
       <c r="L12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +969,8 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -962,13 +982,16 @@
         <v>100</v>
       </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E17" s="3">
         <v>183200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>160800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>177100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>125700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>163600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>708900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>207600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>173400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>548000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E18" s="3">
         <v>14700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>47600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E21" s="3">
         <v>17600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E26" s="3">
         <v>11500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>11500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,46 +1510,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-49200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3100</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>10000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,160 +1959,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E43" s="3">
         <v>129300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>80600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>121900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>94300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>77900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>178500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>168200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>148500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>142800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E44" s="3">
         <v>58500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>53600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>59300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>87900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>82100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>84500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>70000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>96100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>212700</v>
+      </c>
+      <c r="E46" s="3">
         <v>206100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>156200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>217500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>174100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>204000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>252800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>287700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>273800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>259700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>245300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E48" s="3">
         <v>93000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>89200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>71200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>99300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E49" s="3">
         <v>104700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>105900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>95100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>95900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>97000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>97700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>115500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>419100</v>
+      </c>
+      <c r="E54" s="3">
         <v>411500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>359000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>395100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>351800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>388500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>450500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>512600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>394800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>382100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>353800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E57" s="3">
         <v>76500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>83700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>105600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>87800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>76400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E58" s="3">
         <v>25200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E59" s="3">
         <v>39300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E60" s="3">
         <v>141000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>111000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>85600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>102800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>158000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>167500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>153600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>138100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E61" s="3">
         <v>23300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>58600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>74600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>88700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>108900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E62" s="3">
         <v>40400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E66" s="3">
         <v>204600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>195100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>171700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>278300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>312300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>194900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>167000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E72" s="3">
         <v>116800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>109300</v>
       </c>
       <c r="F72" s="3">
         <v>109300</v>
       </c>
       <c r="G72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="H72" s="3">
         <v>91400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>94600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>86800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>116400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>106000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>104300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>103600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E76" s="3">
         <v>207000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>180000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>182300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>172300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>188300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>187200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>186700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2500</v>
       </c>
       <c r="L83" s="3">
         <v>2500</v>
       </c>
       <c r="M83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N83" s="3">
         <v>10400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>52600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-99000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-93400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3695,17 +3929,17 @@
         <v>-900</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3713,13 +3947,16 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>56700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>87100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-6100</v>
       </c>
       <c r="M102" s="3">
         <v>-6100</v>
       </c>
       <c r="N102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>272600</v>
+      </c>
+      <c r="E8" s="3">
         <v>244000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>197900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>171600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>203500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>124000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>176900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>756500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>224700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>179700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>172200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>570500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E9" s="3">
         <v>192100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>157900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>136400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>152700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>140600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>639500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>186700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>158800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>151500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>497400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E10" s="3">
         <v>51900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>117000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1100</v>
       </c>
       <c r="L12" s="3">
         <v>1100</v>
       </c>
       <c r="M12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,8 +992,8 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
@@ -985,13 +1005,16 @@
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>244500</v>
+      </c>
+      <c r="E17" s="3">
         <v>221800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>183200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>160800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>177100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>125700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>163600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>708900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>207600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>173400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>166300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>548000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E18" s="3">
         <v>22200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>47600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E21" s="3">
         <v>25500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E23" s="3">
         <v>22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E26" s="3">
         <v>17000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E27" s="3">
         <v>16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1522,40 +1583,43 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3">
-        <v>-600</v>
-      </c>
       <c r="H29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-3900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-49200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3100</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E33" s="3">
         <v>16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7600</v>
       </c>
-      <c r="G33" s="3">
-        <v>18700</v>
-      </c>
       <c r="H33" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E35" s="3">
         <v>16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7600</v>
       </c>
-      <c r="G35" s="3">
-        <v>18700</v>
-      </c>
       <c r="H35" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E43" s="3">
         <v>131200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>129300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>80600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>121900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>94300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>178500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>168200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>148500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>142800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E44" s="3">
         <v>68400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>58500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>46400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>53600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>87900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>82100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>84500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>70000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>96100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E46" s="3">
         <v>212700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>206100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>156200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>217500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>174100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>204000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>252800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>287700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>273800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>259700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>245300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E48" s="3">
         <v>96200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>93000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>89200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>71200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>72200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>99300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>70500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>69100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E49" s="3">
         <v>103400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>104700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>105900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>95100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>95900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>97000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>97700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>115500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,40 +2460,43 @@
         <v>6800</v>
       </c>
       <c r="E52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>430300</v>
+      </c>
+      <c r="E54" s="3">
         <v>419100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>411500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>359000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>395100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>351800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>388500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>450500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>512600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>394800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>382100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>353800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E57" s="3">
         <v>74700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>105600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>87800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>76400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>14200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E59" s="3">
         <v>42100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E60" s="3">
         <v>131100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>141000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>111000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>102800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>158000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>167500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>170000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>153600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>138100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>23200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>58600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>74600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>88700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>108900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E62" s="3">
         <v>39800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E66" s="3">
         <v>194900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>204600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>195100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>171700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>206300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>278300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>312300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>194900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>167000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E72" s="3">
         <v>131900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>116800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>109300</v>
       </c>
       <c r="G72" s="3">
         <v>109300</v>
       </c>
       <c r="H72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="I72" s="3">
         <v>91400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>94600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>86800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>116400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>106000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>104300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>103600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>246200</v>
+      </c>
+      <c r="E76" s="3">
         <v>224200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>207000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>180000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>182300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>172300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>188300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>187200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>186700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E81" s="3">
         <v>16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7600</v>
       </c>
-      <c r="G81" s="3">
-        <v>18700</v>
-      </c>
       <c r="H81" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2500</v>
       </c>
       <c r="M83" s="3">
         <v>2500</v>
       </c>
       <c r="N83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O83" s="3">
         <v>10400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E89" s="3">
         <v>4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
-        <v>43700</v>
-      </c>
       <c r="G89" s="3">
-        <v>32400</v>
+        <v>43300</v>
       </c>
       <c r="H89" s="3">
+        <v>32700</v>
+      </c>
+      <c r="I89" s="3">
         <v>5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>52600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-99000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-93400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3932,17 +4166,17 @@
         <v>-900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3950,13 +4184,16 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>56700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>87100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10900</v>
       </c>
-      <c r="F102" s="3">
-        <v>-22100</v>
-      </c>
       <c r="G102" s="3">
-        <v>19200</v>
+        <v>-22400</v>
       </c>
       <c r="H102" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-17000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-6100</v>
       </c>
       <c r="N102" s="3">
         <v>-6100</v>
       </c>
       <c r="O102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>277300</v>
+      </c>
+      <c r="E8" s="3">
         <v>272600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>244000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>197900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>171600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>203500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>124000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>176900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>756500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>224700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>179700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>172200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>570500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E9" s="3">
         <v>216600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>192100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>157900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>136400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>152700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>140600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>639500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>186700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>158800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>151500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>497400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E10" s="3">
         <v>56000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1100</v>
       </c>
       <c r="M12" s="3">
         <v>1100</v>
       </c>
       <c r="N12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -1008,13 +1027,16 @@
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>258200</v>
+      </c>
+      <c r="E17" s="3">
         <v>244500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>221800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>183200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>160800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>177100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>125700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>163600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>708900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>207600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>173400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>166300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>548000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E18" s="3">
         <v>28100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>47600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,219 +1220,234 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E21" s="3">
         <v>31100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E23" s="3">
         <v>27900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E26" s="3">
         <v>21000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>20900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1631,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-3900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-49200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3100</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1784,93 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E33" s="3">
         <v>20900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E35" s="3">
         <v>20900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2144,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E43" s="3">
         <v>114100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>131200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>129300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>80600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>121900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>94300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>77900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>178500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>168200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>148500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>142800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E44" s="3">
         <v>81900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>68400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>58500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>46400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>53600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>87900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>82100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>84500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>70000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>96100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E46" s="3">
         <v>219100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>212700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>206100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>156200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>217500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>174100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>204000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>252800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>287700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>273800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>259700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>245300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E48" s="3">
         <v>101700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>96200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>93000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>89200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>71200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>99300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>69100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>56600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E49" s="3">
         <v>102700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>103400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>104700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>105900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>95100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>95900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>97000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>97700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>115500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
+        <v>7800</v>
       </c>
       <c r="E52" s="3">
         <v>6800</v>
       </c>
       <c r="F52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G52" s="3">
         <v>7700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>447900</v>
+      </c>
+      <c r="E54" s="3">
         <v>430300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>419100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>411500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>359000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>395100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>351800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>388500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>450500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>512600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>394800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>382100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>353800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2748,197 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E57" s="3">
         <v>89600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>83700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>105600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>87800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>76400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E59" s="3">
         <v>46000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E60" s="3">
         <v>139800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>141000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>111000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>102800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>158000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>167500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>170000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>153600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>138100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,87 +2946,93 @@
         <v>700</v>
       </c>
       <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>23200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>58600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>74600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>108900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E62" s="3">
         <v>42600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E66" s="3">
         <v>184100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>194900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>204600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>195100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>171700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>206300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>278300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>312300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>194900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>167000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>171400</v>
+      </c>
+      <c r="E72" s="3">
         <v>151900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>131900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>116800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>109300</v>
       </c>
       <c r="H72" s="3">
         <v>109300</v>
       </c>
       <c r="I72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="J72" s="3">
         <v>91400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>94600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>86800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>116400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>106000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>104300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>103600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>266800</v>
+      </c>
+      <c r="E76" s="3">
         <v>246200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>224200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>207000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>180000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>182300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>172300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>188300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>187200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>186700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E81" s="3">
         <v>20900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,43 +3835,46 @@
         <v>3000</v>
       </c>
       <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2500</v>
       </c>
       <c r="N83" s="3">
         <v>2500</v>
       </c>
       <c r="O83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P83" s="3">
         <v>10400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E89" s="3">
         <v>39100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>52600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4169,17 +4402,17 @@
         <v>-900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4187,13 +4420,16 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>56700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>87100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E102" s="3">
         <v>10400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-6100</v>
       </c>
       <c r="O102" s="3">
         <v>-6100</v>
       </c>
       <c r="P102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>206900</v>
+      </c>
+      <c r="E8" s="3">
         <v>277300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>272600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>244000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>197900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>171600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>203500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>124000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>176900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>756500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>224700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>179700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>172200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>570500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E9" s="3">
         <v>226000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>216600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>192100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>157900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>152700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>140600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>639500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>186700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>158800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>151500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>497400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E10" s="3">
         <v>51300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>56000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>117000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1100</v>
       </c>
       <c r="N12" s="3">
         <v>1100</v>
       </c>
       <c r="O12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1037,8 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
@@ -1030,13 +1050,16 @@
         <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>212400</v>
+      </c>
+      <c r="E17" s="3">
         <v>258200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>244500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>221800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>183200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>160800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>177100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>125700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>163600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>708900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>207600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>173400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>548000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>19100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>47600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>22200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>20500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,55 +1692,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-49200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>20500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>20500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>37200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E43" s="3">
         <v>118700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>114100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>131200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>80600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>121900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>94300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>77900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>178500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>168200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>148500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>142800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E44" s="3">
         <v>67200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>81900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>68400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>58500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>46400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>53600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>87900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>82100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>84500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>70000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E46" s="3">
         <v>233800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>219100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>212700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>206100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>156200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>217500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>174100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>204000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>252800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>287700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>273800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>259700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>245300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E48" s="3">
         <v>104400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>96200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>93000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>89200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>71200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>99300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>70500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>69100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E49" s="3">
         <v>101900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>102700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>103400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>104700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>105900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>95100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>95900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>97000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>115500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
         <v>7800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6800</v>
       </c>
       <c r="F52" s="3">
         <v>6800</v>
       </c>
       <c r="G52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E54" s="3">
         <v>447900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>430300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>419100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>411500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>359000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>395100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>351800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>388500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>450500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>512600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>394800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>382100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>353800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E57" s="3">
         <v>82400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>89600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>63500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>83700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>105600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>87800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>76400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E58" s="3">
         <v>10200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E59" s="3">
         <v>43200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>94900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E60" s="3">
         <v>135800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>139800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>131100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>141000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>111000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>102800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>158000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>167500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>170000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>153600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>138100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>35200</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
       </c>
       <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>23200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>58600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>74600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>88700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>108900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E62" s="3">
         <v>44400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>39800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E66" s="3">
         <v>181100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>184100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>194900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>204600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>195100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>171700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>278300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>312300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>206500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>194900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>167000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E72" s="3">
         <v>171400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>151900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>131900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>116800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>109300</v>
       </c>
       <c r="I72" s="3">
         <v>109300</v>
       </c>
       <c r="J72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K72" s="3">
         <v>91400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>94600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>86800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>116400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>106000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>104300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>103600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E76" s="3">
         <v>266800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>246200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>207000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>180000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>182300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>172300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>200300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>188300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>187200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>186700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>20500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,43 +4037,46 @@
         <v>3000</v>
       </c>
       <c r="F83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2500</v>
       </c>
       <c r="O83" s="3">
         <v>2500</v>
       </c>
       <c r="P83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>10400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E89" s="3">
         <v>31700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>52600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,13 +4614,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-900</v>
+        <v>-1900</v>
       </c>
       <c r="E96" s="3">
         <v>-900</v>
@@ -4405,17 +4639,17 @@
         <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4423,13 +4657,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>87100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E102" s="3">
         <v>22600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-6100</v>
       </c>
       <c r="P102" s="3">
         <v>-6100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>232200</v>
+      </c>
+      <c r="E8" s="3">
         <v>206900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>277300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>272600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>244000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>197900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>171600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>203500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>124000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>756500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>224700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>179700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>172200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>570500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E9" s="3">
         <v>181000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>226000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>216600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>192100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>157900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>152700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>639500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>186700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>158800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>151500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>497400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E10" s="3">
         <v>25900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>56000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>51900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>117000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1100</v>
       </c>
       <c r="O12" s="3">
         <v>1100</v>
       </c>
       <c r="P12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
@@ -1053,13 +1073,16 @@
         <v>100</v>
       </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E17" s="3">
         <v>212400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>258200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>244500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>221800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>183200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>160800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>177100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>163600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>708900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>207600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>173400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>166300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>548000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1704,49 +1765,52 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-49200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3100</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E43" s="3">
         <v>123000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>114100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>131200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>80600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>121900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>94300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>178500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>168200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>148500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>142800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E44" s="3">
         <v>91300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>67200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>68400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>58500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>46400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>53600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>87900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>82100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>84500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>70000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>267600</v>
+      </c>
+      <c r="E46" s="3">
         <v>229900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>233800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>219100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>212700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>206100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>156200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>217500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>174100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>204000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>252800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>287700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>273800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>259700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>245300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,99 +2607,105 @@
         <v>120600</v>
       </c>
       <c r="E48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F48" s="3">
         <v>104400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>96200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>93000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>89200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>72900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>71200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>99300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>70500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>69100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E49" s="3">
         <v>101000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>101900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>102700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>103400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>104700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>105900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>95100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>95900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>97700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>115500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6800</v>
       </c>
       <c r="G52" s="3">
         <v>6800</v>
       </c>
       <c r="H52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E54" s="3">
         <v>459100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>447900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>430300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>419100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>411500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>359000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>395100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>351800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>388500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>450500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>512600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>394800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>382100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>353800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E57" s="3">
         <v>90000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>89600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>74700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>83700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>105600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>87800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>76400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E58" s="3">
         <v>9400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E59" s="3">
         <v>40900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>94900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>66800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E60" s="3">
         <v>140300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>139800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>141000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>111000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>102800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>158000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>167500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>170000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>153600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>138100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E61" s="3">
         <v>35200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>23200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>58600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>74600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>88700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>108900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E62" s="3">
         <v>55900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>39800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E66" s="3">
         <v>231500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>181100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>184100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>194900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>204600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>195100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>171700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>278300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>312300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>206500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>194900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>167000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E72" s="3">
         <v>140500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>171400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>151900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>131900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>116800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>109300</v>
       </c>
       <c r="J72" s="3">
         <v>109300</v>
       </c>
       <c r="K72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="L72" s="3">
         <v>91400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>94600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>86800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>116400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>106000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>104300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>103600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>232900</v>
+      </c>
+      <c r="E76" s="3">
         <v>227600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>266800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>246200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>207000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>180000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>182300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>172300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>188300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>187200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>186700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
         <v>3000</v>
@@ -4040,43 +4239,46 @@
         <v>3000</v>
       </c>
       <c r="G83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2500</v>
       </c>
       <c r="P83" s="3">
         <v>2500</v>
       </c>
       <c r="Q83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R83" s="3">
         <v>10400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>52600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-93400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,16 +4848,17 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-900</v>
       </c>
       <c r="F96" s="3">
         <v>-900</v>
@@ -4642,17 +4876,17 @@
         <v>-900</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4660,13 +4894,16 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>87100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-6100</v>
       </c>
       <c r="Q102" s="3">
         <v>-6100</v>
       </c>
       <c r="R102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>286100</v>
+      </c>
+      <c r="E8" s="3">
         <v>232200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>206900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>277300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>272600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>244000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>197900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>171600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>203500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>124000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>176900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>756500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>224700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>179700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>172200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>570500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E9" s="3">
         <v>190100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>181000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>226000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>216600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>192100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>157900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>152700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>639500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>186700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>158800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>151500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>497400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E10" s="3">
         <v>42100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>40000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>117000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1100</v>
       </c>
       <c r="P12" s="3">
         <v>1100</v>
       </c>
       <c r="Q12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
@@ -1076,13 +1096,16 @@
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>264100</v>
+      </c>
+      <c r="E17" s="3">
         <v>224500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>212400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>258200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>244500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>221800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>183200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>177100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>125700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>163600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>708900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>207600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>173400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>166300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>548000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>47600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E21" s="3">
         <v>10900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,49 +1829,52 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-49200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3100</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>40900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E43" s="3">
         <v>145200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>118700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>114100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>131200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>121900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>85400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>94300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>77900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>178500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>168200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>148500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>142800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E44" s="3">
         <v>102000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>91300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>67200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>68400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>58500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>46400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>53600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>87900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>82100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>84500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>70000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
         <v>13700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>96100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>325900</v>
+      </c>
+      <c r="E46" s="3">
         <v>267600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>229900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>233800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>219100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>212700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>206100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>156200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>217500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>174100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>204000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>252800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>287700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>273800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>259700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>245300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>120600</v>
+        <v>120100</v>
       </c>
       <c r="E48" s="3">
         <v>120600</v>
       </c>
       <c r="F48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="G48" s="3">
         <v>104400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>96200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>93000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>89200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>71200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>72200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>99300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>70500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>69100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E49" s="3">
         <v>99900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>101000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>101900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>102700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>103400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>104700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>105900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>95100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>95900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>97000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>97700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>115500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6800</v>
       </c>
       <c r="H52" s="3">
         <v>6800</v>
       </c>
       <c r="I52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>551700</v>
+      </c>
+      <c r="E54" s="3">
         <v>495000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>459100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>447900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>430300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>419100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>411500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>359000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>395100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>351800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>388500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>450500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>512600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>394800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>382100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>353800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E57" s="3">
         <v>90300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>82400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>89600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>74700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>63400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>50400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>83700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>105600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>87800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>76400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E58" s="3">
         <v>23800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E59" s="3">
         <v>39400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>66800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>65800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>61600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E60" s="3">
         <v>153500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>140300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>139800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>141000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>111000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>158000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>167500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>170000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>153600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>138100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E61" s="3">
         <v>55300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>23200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>48500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>58600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>74600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>88700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>108900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E62" s="3">
         <v>53200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>39800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E66" s="3">
         <v>262100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>231500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>181100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>184100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>194900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>204600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>158700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>171700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>278300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>312300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>206500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>194900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>167000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>159500</v>
+      </c>
+      <c r="E72" s="3">
         <v>144000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>140500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>171400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>151900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>131900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>116800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>109300</v>
       </c>
       <c r="K72" s="3">
         <v>109300</v>
       </c>
       <c r="L72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="M72" s="3">
         <v>91400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>94600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>86800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>116400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>106000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>104300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>103600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>249700</v>
+      </c>
+      <c r="E76" s="3">
         <v>232900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>227600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>266800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>246200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>207000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>180000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>182300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>172300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>188300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>187200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>186700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3000</v>
       </c>
       <c r="F83" s="3">
         <v>3000</v>
@@ -4242,43 +4441,46 @@
         <v>3000</v>
       </c>
       <c r="H83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2500</v>
       </c>
       <c r="Q83" s="3">
         <v>2500</v>
       </c>
       <c r="R83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S83" s="3">
         <v>10400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>34200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>52600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-99000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-93400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,10 +5092,10 @@
         <v>-1800</v>
       </c>
       <c r="E96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-900</v>
       </c>
       <c r="G96" s="3">
         <v>-900</v>
@@ -4879,17 +5113,17 @@
         <v>-900</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4897,13 +5131,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E100" s="3">
         <v>16200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>87100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-6100</v>
       </c>
       <c r="R102" s="3">
         <v>-6100</v>
       </c>
       <c r="S102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E8" s="3">
         <v>286100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>232200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>206900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>277300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>272600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>244000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>197900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>203500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>124000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>176900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>756500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>224700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>179700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>172200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>570500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E9" s="3">
         <v>232000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>190100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>181000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>226000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>216600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>192100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>157900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>152700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>639500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>186700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>158800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>151500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>497400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E10" s="3">
         <v>54100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>51300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>40000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>117000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1100</v>
       </c>
       <c r="Q12" s="3">
         <v>1100</v>
       </c>
       <c r="R12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1105,8 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>100</v>
@@ -1099,13 +1118,16 @@
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>278700</v>
+      </c>
+      <c r="E17" s="3">
         <v>264100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>224500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>212400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>258200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>244500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>221800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>183200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>160800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>177100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>125700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>163600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>708900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>207600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>173400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>166300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>548000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E18" s="3">
         <v>22000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>47600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
       </c>
       <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E21" s="3">
         <v>25600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,167 +1473,176 @@
         <v>1100</v>
       </c>
       <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E23" s="3">
         <v>21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E26" s="3">
         <v>17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E27" s="3">
         <v>17300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1832,49 +1892,52 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-49200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3100</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
       </c>
       <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E33" s="3">
         <v>17300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E35" s="3">
         <v>17300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E43" s="3">
         <v>199000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>145200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>118700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>114100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>131200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>121900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>85400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>94300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>77900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>178500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>168200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>148500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>142800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E44" s="3">
         <v>111200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>102000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>91300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>67200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>68400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>58500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>46400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>53600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>87900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>82100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>84500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>70000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E45" s="3">
         <v>12800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>96100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>345800</v>
+      </c>
+      <c r="E46" s="3">
         <v>325900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>267600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>229900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>233800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>219100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>212700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>206100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>156200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>217500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>174100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>204000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>252800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>287700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>273800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>259700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>245300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E48" s="3">
         <v>120100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>120600</v>
       </c>
       <c r="F48" s="3">
         <v>120600</v>
       </c>
       <c r="G48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="H48" s="3">
         <v>104400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>96200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>93000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>89200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>66700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>71200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>72200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>99300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>70500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>69100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E49" s="3">
         <v>98900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>99900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>101000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>101900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>102700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>103400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>104700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>105900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>95100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>95900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>97000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>97700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>115500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E52" s="3">
         <v>6700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6800</v>
       </c>
       <c r="I52" s="3">
         <v>6800</v>
       </c>
       <c r="J52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>580500</v>
+      </c>
+      <c r="E54" s="3">
         <v>551700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>495000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>459100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>447900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>430300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>419100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>411500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>359000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>395100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>351800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>388500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>450500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>512600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>394800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>382100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>353800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E57" s="3">
         <v>106600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>82400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>89600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>50400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>54700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>83700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>105600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>87800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>76400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E58" s="3">
         <v>24500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E59" s="3">
         <v>54400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>94900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>66800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>61600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>201200</v>
+      </c>
+      <c r="E60" s="3">
         <v>185400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>153500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>140300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>139800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>131100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>141000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>111000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>85600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>102800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>158000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>167500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>170000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>153600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>138100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E61" s="3">
         <v>65200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>55300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
       </c>
       <c r="I61" s="3">
+        <v>700</v>
+      </c>
+      <c r="J61" s="3">
         <v>23200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>48500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>58600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>74600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>88700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>108900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E62" s="3">
         <v>51200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>44400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>39800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>40400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E66" s="3">
         <v>302000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>262100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>231500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>181100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>184100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>194900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>204600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>158700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>171700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>206300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>278300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>312300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>206500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>194900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>167000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E72" s="3">
         <v>159500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>144000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>140500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>171400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>151900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>131900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>116800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>109300</v>
       </c>
       <c r="L72" s="3">
         <v>109300</v>
       </c>
       <c r="M72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="N72" s="3">
         <v>91400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>94600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>86800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>116400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>106000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>104300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>103600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>268600</v>
+      </c>
+      <c r="E76" s="3">
         <v>249700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>232900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>266800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>246200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>224200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>207000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>180000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>182300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>172300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>188300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>187200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>186700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E81" s="3">
         <v>17300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,19 +4620,20 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3000</v>
       </c>
       <c r="G83" s="3">
         <v>3000</v>
@@ -4444,43 +4642,46 @@
         <v>3000</v>
       </c>
       <c r="I83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2500</v>
       </c>
       <c r="R83" s="3">
         <v>2500</v>
       </c>
       <c r="S83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T83" s="3">
         <v>10400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>52600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-99000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-93400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,10 +5328,10 @@
         <v>-1800</v>
       </c>
       <c r="F96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-900</v>
       </c>
       <c r="H96" s="3">
         <v>-900</v>
@@ -5116,17 +5349,17 @@
         <v>-900</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5134,13 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E100" s="3">
         <v>8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>87100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-6100</v>
       </c>
       <c r="S102" s="3">
         <v>-6100</v>
       </c>
       <c r="T102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>243400</v>
+      </c>
+      <c r="E8" s="3">
         <v>302000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>286100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>232200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>206900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>277300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>272600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>244000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>197900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>171600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>203500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>124000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>176900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>756500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>224700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>179700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>172200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>570500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E9" s="3">
         <v>243700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>232000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>190100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>181000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>226000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>216600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>192100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>157900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>152700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>639500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>186700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>158800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>151500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>497400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E10" s="3">
         <v>58300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>54100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>56000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>117000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1100</v>
       </c>
       <c r="R12" s="3">
         <v>1100</v>
       </c>
       <c r="S12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1108,8 +1128,8 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
@@ -1121,13 +1141,16 @@
         <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>239800</v>
+      </c>
+      <c r="E17" s="3">
         <v>278700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>264100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>224500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>212400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>258200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>244500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>221800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>183200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>177100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>163600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>708900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>207600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>173400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>166300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>548000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E21" s="3">
         <v>27700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>60200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>21900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>17800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>17800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,13 +1935,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1895,49 +1956,52 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3100</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>17800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>17800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E43" s="3">
         <v>222300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>199000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>145200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>123000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>114100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>131200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>85400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>94300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>77900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>178500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>168200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>148500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>142800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E44" s="3">
         <v>100200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>111200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>102000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>91300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>68400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>58500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>46400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>53600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>59500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>87900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>82100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>84500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>70000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>96100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>317900</v>
+      </c>
+      <c r="E46" s="3">
         <v>345800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>325900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>267600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>229900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>233800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>219100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>212700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>206100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>156200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>217500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>174100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>204000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>252800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>287700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>273800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>259700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>245300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>128900</v>
+      </c>
+      <c r="E48" s="3">
         <v>124100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>120100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>120600</v>
       </c>
       <c r="G48" s="3">
         <v>120600</v>
       </c>
       <c r="H48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="I48" s="3">
         <v>104400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>101700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>96200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>93000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>89200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>71200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>72200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>99300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>70500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>69100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>56600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E49" s="3">
         <v>98000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>98900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>99900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>101000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>101900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>102700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>103400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>104700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>105900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>95100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>95900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>97000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>97700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>115500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E52" s="3">
         <v>12600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>6800</v>
       </c>
       <c r="J52" s="3">
         <v>6800</v>
       </c>
       <c r="K52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E54" s="3">
         <v>580500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>551700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>495000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>459100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>447900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>430300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>419100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>411500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>359000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>395100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>351800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>388500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>450500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>512600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>394800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>382100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>353800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E57" s="3">
         <v>124300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>106600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>82400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>89600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>50400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>54700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>83700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>105600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>87800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>76400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E58" s="3">
         <v>19700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E59" s="3">
         <v>57200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>94900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>65800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>61600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E60" s="3">
         <v>201200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>185400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>153500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>140300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>139800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>131100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>141000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>111000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>85600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>102800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>158000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>167500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>170000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>153600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>138100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E61" s="3">
         <v>56300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>55300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>700</v>
       </c>
       <c r="J61" s="3">
+        <v>700</v>
+      </c>
+      <c r="K61" s="3">
         <v>23200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>48500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>58600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>74600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>88700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>108900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E62" s="3">
         <v>54300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>39800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E66" s="3">
         <v>311900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>302000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>262100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>231500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>181100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>184100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>194900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>204600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>158700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>195100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>171700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>206300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>278300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>312300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>206500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>194900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>167000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E72" s="3">
         <v>175600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>159500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>144000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>140500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>171400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>151900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>131900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>116800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>109300</v>
       </c>
       <c r="M72" s="3">
         <v>109300</v>
       </c>
       <c r="N72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="O72" s="3">
         <v>91400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>94600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>86800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>116400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>106000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>104300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>103600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>256900</v>
+      </c>
+      <c r="E76" s="3">
         <v>268600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>249700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>232900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>227600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>266800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>246200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>224200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>207000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>200000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>180000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>182300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>172300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>200300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>188300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>187200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>186700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>17800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,22 +4819,23 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3000</v>
       </c>
       <c r="H83" s="3">
         <v>3000</v>
@@ -4645,43 +4844,46 @@
         <v>3000</v>
       </c>
       <c r="J83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2500</v>
       </c>
       <c r="S83" s="3">
         <v>2500</v>
       </c>
       <c r="T83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U83" s="3">
         <v>10400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>52600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E96" s="3">
         <v>-1800</v>
@@ -5331,10 +5565,10 @@
         <v>-1800</v>
       </c>
       <c r="G96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-900</v>
       </c>
       <c r="I96" s="3">
         <v>-900</v>
@@ -5352,17 +5586,17 @@
         <v>-900</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5370,13 +5604,16 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>87100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-6100</v>
       </c>
       <c r="T102" s="3">
         <v>-6100</v>
       </c>
       <c r="U102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E8" s="3">
         <v>243400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>302000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>286100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>232200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>206900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>277300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>272600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>244000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>197900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>171600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>203500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>124000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>176900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>756500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>224700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>179700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>172200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>570500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E9" s="3">
         <v>200500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>243700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>232000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>190100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>181000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>226000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>216600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>192100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>157900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>152700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>140600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>639500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>186700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>158800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>151500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>497400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E10" s="3">
         <v>42900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>117000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E12" s="3">
         <v>6900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1100</v>
       </c>
       <c r="S12" s="3">
         <v>1100</v>
       </c>
       <c r="T12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
@@ -1144,13 +1164,16 @@
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E17" s="3">
         <v>239800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>278700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>264100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>224500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>212400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>258200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>244500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>221800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>183200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>177100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>163600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>708900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>207600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>173400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>166300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>548000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,309 +1423,324 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E21" s="3">
         <v>7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>60200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,16 +1996,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1959,49 +2020,52 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-49200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3100</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E43" s="3">
         <v>196300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>222300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>199000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>145200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>118700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>114100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>131200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>121900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>85400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>94300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>77900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>178500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>168200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>148500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>142800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E44" s="3">
         <v>109300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>111200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>102000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>91300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>81900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>46400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>43100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>53600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>59300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>87900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>82100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>84500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>70000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>96100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>260200</v>
+      </c>
+      <c r="E46" s="3">
         <v>317900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>345800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>325900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>267600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>229900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>233800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>219100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>212700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>206100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>156200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>217500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>174100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>204000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>252800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>287700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>273800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>259700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>245300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E48" s="3">
         <v>128900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>120100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>120600</v>
       </c>
       <c r="H48" s="3">
         <v>120600</v>
       </c>
       <c r="I48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="J48" s="3">
         <v>104400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>101700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>96200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>89200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>72900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>71200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>72200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>99300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>70500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>69100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>56600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E49" s="3">
         <v>97000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>98000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>98900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>99900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>101000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>101900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>102700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>103400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>104700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>105900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>95100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>95900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>97000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>97700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>115500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E52" s="3">
         <v>13200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6800</v>
       </c>
       <c r="K52" s="3">
         <v>6800</v>
       </c>
       <c r="L52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="M52" s="3">
         <v>7700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>495800</v>
+      </c>
+      <c r="E54" s="3">
         <v>557000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>580500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>551700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>495000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>459100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>447900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>430300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>419100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>411500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>359000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>395100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>351800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>388500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>450500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>512600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>394800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>382100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>353800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E57" s="3">
         <v>107800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>124300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>106600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>82400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>89600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>76500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>50400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>54700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>83700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>105600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>87800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>76400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E58" s="3">
         <v>16300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E59" s="3">
         <v>55900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>94900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>65800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>61600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E60" s="3">
         <v>180000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>201200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>185400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>153500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>140300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>139800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>141000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>111000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>85600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>102800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>158000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>167500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>170000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>153600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>138100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E61" s="3">
         <v>65200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>56300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>65200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>55300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>23200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>48500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>58600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>74600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>88700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>108900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E62" s="3">
         <v>54800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>234700</v>
+      </c>
+      <c r="E66" s="3">
         <v>300100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>311900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>302000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>262100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>231500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>181100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>184100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>194900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>204600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>158700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>195100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>171700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>206300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>278300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>312300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>206500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>194900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>167000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E72" s="3">
         <v>167600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>175600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>159500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>144000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>140500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>171400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>151900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>131900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>116800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>109300</v>
       </c>
       <c r="N72" s="3">
         <v>109300</v>
       </c>
       <c r="O72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="P72" s="3">
         <v>91400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>94600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>86800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>116400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>106000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>104300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>103600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>261100</v>
+      </c>
+      <c r="E76" s="3">
         <v>256900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>268600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>249700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>232900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>227600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>266800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>246200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>224200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>207000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>200300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>180000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>182300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>172300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>188300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>187200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>186700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,25 +5018,26 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3000</v>
       </c>
       <c r="I83" s="3">
         <v>3000</v>
@@ -4847,43 +5046,46 @@
         <v>3000</v>
       </c>
       <c r="K83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>2500</v>
       </c>
       <c r="T83" s="3">
         <v>2500</v>
       </c>
       <c r="U83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V83" s="3">
         <v>10400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E89" s="3">
         <v>5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>52600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-93400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,16 +5783,17 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1800</v>
       </c>
       <c r="F96" s="3">
         <v>-1800</v>
@@ -5568,10 +5802,10 @@
         <v>-1800</v>
       </c>
       <c r="H96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-900</v>
       </c>
       <c r="J96" s="3">
         <v>-900</v>
@@ -5589,17 +5823,17 @@
         <v>-900</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5841,16 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>87100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>21600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-6100</v>
       </c>
       <c r="U102" s="3">
         <v>-6100</v>
       </c>
       <c r="V102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SHYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>201300</v>
+      </c>
+      <c r="E8" s="3">
         <v>225100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>243400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>302000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>286100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>232200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>206900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>277300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>272600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>244000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>197900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>171600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>203500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>124000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>176900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>756500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>224700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>179700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>172200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>570500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>226200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E9" s="3">
         <v>182300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>243700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>232000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>190100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>181000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>226000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>216600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>192100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>157900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>152700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>140600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>639500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>186700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>158800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>151500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>497400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E10" s="3">
         <v>42800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>117000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4900</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1100</v>
       </c>
       <c r="T12" s="3">
         <v>1100</v>
       </c>
       <c r="U12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
@@ -1167,13 +1187,16 @@
         <v>100</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E17" s="3">
         <v>218500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>239800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>278700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>264100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>224500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>212400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>258200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>244500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>221800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>183200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>160800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>177100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>125700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>163600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>708900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>207600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>173400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>166300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>548000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>219800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E21" s="3">
         <v>10900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>60200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>32900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
       </c>
       <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>21500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2071,8 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2023,49 +2084,52 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-49200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3100</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E41" s="3">
         <v>7800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E43" s="3">
         <v>144000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>196300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>222300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>199000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>145200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>118700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>114100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>131200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>121900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>85400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>94300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>77900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>178500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>168200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>148500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>142800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E44" s="3">
         <v>101300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>109300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>111200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>102000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>91300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>81900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>68400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>46400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>53600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>87900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>82100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>84500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>70000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>96100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>299700</v>
+      </c>
+      <c r="E46" s="3">
         <v>260200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>317900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>345800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>325900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>267600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>229900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>233800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>219100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>212700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>206100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>156200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>217500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>174100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>204000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>252800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>287700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>273800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>259700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>245300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>249800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E48" s="3">
         <v>126500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>128900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>120100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>120600</v>
       </c>
       <c r="I48" s="3">
         <v>120600</v>
       </c>
       <c r="J48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K48" s="3">
         <v>104400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>101700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>96200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>93000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>89200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>72900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>66700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>71200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>72200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>99300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>70500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>69100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>56600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E49" s="3">
         <v>96100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>97000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>98000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>98900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>99900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>101000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>101900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>102700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>103400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>104700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>95100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>95900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>97000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>97700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>115500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E52" s="3">
         <v>13100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>6800</v>
       </c>
       <c r="L52" s="3">
         <v>6800</v>
       </c>
       <c r="M52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N52" s="3">
         <v>7700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>535500</v>
+      </c>
+      <c r="E54" s="3">
         <v>495800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>557000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>580500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>551700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>495000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>459100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>447900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>430300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>419100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>411500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>359000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>395100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>351800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>388500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>450500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>512600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>394800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>382100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>353800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>349900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E57" s="3">
         <v>85700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>107800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>124300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>106600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>90000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>82400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>74700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>76500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>50400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>54700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>83700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>105600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>87800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>76400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>92600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E58" s="3">
         <v>9500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E59" s="3">
         <v>44900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>94900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>66800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>64200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>65800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>61600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E60" s="3">
         <v>140100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>180000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>201200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>185400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>153500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>140300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>135800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>139800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>131100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>141000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>85600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>102800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>158000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>167500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>170000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>153600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>138100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>143200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E61" s="3">
         <v>45200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>56300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>65200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>55300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
       </c>
       <c r="L61" s="3">
+        <v>700</v>
+      </c>
+      <c r="M61" s="3">
         <v>23200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>48500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>58600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>74600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>88700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>108900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E62" s="3">
         <v>49300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>279800</v>
+      </c>
+      <c r="E66" s="3">
         <v>234700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>311900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>302000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>262100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>231500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>181100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>184100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>194900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>204600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>158700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>195100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>171700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>206300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>278300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>312300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>206500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>194900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>167000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>165500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E72" s="3">
         <v>170500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>167600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>175600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>159500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>144000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>140500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>171400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>151900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>131900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>116800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>109300</v>
       </c>
       <c r="O72" s="3">
         <v>109300</v>
       </c>
       <c r="P72" s="3">
+        <v>109300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>91400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>94600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>86800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>116400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>106000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>104300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>103600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>255700</v>
+      </c>
+      <c r="E76" s="3">
         <v>261100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>256900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>268600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>249700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>232900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>227600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>266800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>246200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>224200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>207000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>180000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>182300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>172300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>200300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>188300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>187200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>186700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>184400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,28 +5217,29 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3000</v>
       </c>
       <c r="J83" s="3">
         <v>3000</v>
@@ -5049,43 +5248,46 @@
         <v>3000</v>
       </c>
       <c r="L83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>2500</v>
       </c>
       <c r="U83" s="3">
         <v>2500</v>
       </c>
       <c r="V83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W83" s="3">
         <v>10400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E89" s="3">
         <v>29700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>52600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-99000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-93400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,19 +6017,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1800</v>
       </c>
       <c r="G96" s="3">
         <v>-1800</v>
@@ -5805,10 +6039,10 @@
         <v>-1800</v>
       </c>
       <c r="I96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-900</v>
       </c>
       <c r="K96" s="3">
         <v>-900</v>
@@ -5826,17 +6060,17 @@
         <v>-900</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5844,13 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-3500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>87100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>21600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-6100</v>
       </c>
       <c r="V102" s="3">
         <v>-6100</v>
       </c>
       <c r="W102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-6000</v>
       </c>
     </row>
